--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1373673.476151577</v>
+        <v>-1376232.746719134</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>117.2072649272283</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
         <v>295.0640301736143</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.1129955007334</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9987361002815</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>308.9097603866896</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.95340549104684</v>
@@ -865,25 +865,25 @@
         <v>89.83072347163694</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.1172987294701</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>139.9204712954684</v>
+        <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>100.343951257055</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +911,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>79.41818244097614</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>316.3713552875029</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>83.01174010056361</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>106.6467061034381</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.0347679441529</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>108.5262022477623</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.4682456726331</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,16 +1345,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>80.14472699070521</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.26260713376608</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>149.1095818503219</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>118.2774686880314</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>97.22826981530251</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>112.347052256262</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>122.4770547252866</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>172.7365230047963</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.955370467302</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>72.60410776434509</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161917459</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.70843787977293</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703267</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308906</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
@@ -3718,16 +3718,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.821356357765</v>
+        <v>1988.056090384795</v>
       </c>
       <c r="C2" t="n">
-        <v>883.8588394173532</v>
+        <v>1619.093573444384</v>
       </c>
       <c r="D2" t="n">
-        <v>525.5931408106028</v>
+        <v>1619.093573444384</v>
       </c>
       <c r="E2" t="n">
-        <v>525.593140810603</v>
+        <v>1233.305320846139</v>
       </c>
       <c r="F2" t="n">
-        <v>525.5931408106029</v>
+        <v>822.3194160565317</v>
       </c>
       <c r="G2" t="n">
         <v>407.201964116433</v>
@@ -4325,13 +4325,13 @@
         <v>109.1574891935903</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J2" t="n">
-        <v>250.5613272725627</v>
+        <v>250.5613272725626</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183944</v>
+        <v>578.7702206183943</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887445</v>
@@ -4346,34 +4346,34 @@
         <v>2583.081262767914</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303805</v>
+        <v>2971.513095303804</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301001</v>
+        <v>3215.036478301</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658116</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007346</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077312</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208341</v>
+        <v>3017.748878789144</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.195101864771</v>
+        <v>2686.685991445573</v>
       </c>
       <c r="W2" t="n">
-        <v>2016.426446594656</v>
+        <v>2686.685991445573</v>
       </c>
       <c r="X2" t="n">
-        <v>1642.960688333577</v>
+        <v>2374.655930448917</v>
       </c>
       <c r="Y2" t="n">
-        <v>1252.821356357765</v>
+        <v>2374.655930448917</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1647.371745645389</v>
+        <v>1647.371745645388</v>
       </c>
       <c r="C3" t="n">
-        <v>1472.918716364262</v>
+        <v>1472.918716364261</v>
       </c>
       <c r="D3" t="n">
-        <v>1323.984306703011</v>
+        <v>1323.98430670301</v>
       </c>
       <c r="E3" t="n">
-        <v>1164.746851697555</v>
+        <v>1164.746851697554</v>
       </c>
       <c r="F3" t="n">
-        <v>1018.21229372444</v>
+        <v>1018.212293724439</v>
       </c>
       <c r="G3" t="n">
-        <v>881.8251154793064</v>
+        <v>881.8251154793055</v>
       </c>
       <c r="H3" t="n">
-        <v>791.0906775767812</v>
+        <v>791.0906775767803</v>
       </c>
       <c r="I3" t="n">
-        <v>781.4824094083606</v>
+        <v>781.4824094083597</v>
       </c>
       <c r="J3" t="n">
-        <v>872.9300981008087</v>
+        <v>872.9300981008078</v>
       </c>
       <c r="K3" t="n">
-        <v>1107.38358837468</v>
+        <v>1107.383588374679</v>
       </c>
       <c r="L3" t="n">
-        <v>1468.957780560825</v>
+        <v>1468.957780560824</v>
       </c>
       <c r="M3" t="n">
-        <v>1910.254676661455</v>
+        <v>1910.254676661454</v>
       </c>
       <c r="N3" t="n">
         <v>2377.640033397719</v>
       </c>
       <c r="O3" t="n">
-        <v>2782.98652847158</v>
+        <v>2782.986528471579</v>
       </c>
       <c r="P3" t="n">
-        <v>3088.979760503335</v>
+        <v>3116.653779959889</v>
       </c>
       <c r="Q3" t="n">
-        <v>3243.608936201562</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="R3" t="n">
-        <v>3271.282955658116</v>
+        <v>3271.282955658115</v>
       </c>
       <c r="S3" t="n">
         <v>3141.397829417916</v>
       </c>
       <c r="T3" t="n">
-        <v>2948.657777545535</v>
+        <v>2948.657777545534</v>
       </c>
       <c r="U3" t="n">
-        <v>2720.588346595888</v>
+        <v>2720.588346595887</v>
       </c>
       <c r="V3" t="n">
-        <v>2485.436238364146</v>
+        <v>2485.436238364145</v>
       </c>
       <c r="W3" t="n">
-        <v>2231.198881635944</v>
+        <v>2231.198881635943</v>
       </c>
       <c r="X3" t="n">
-        <v>2023.347381430411</v>
+        <v>2023.34738143041</v>
       </c>
       <c r="Y3" t="n">
-        <v>1815.587082665457</v>
+        <v>1815.587082665456</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>754.6747333346186</v>
+        <v>797.0241846473876</v>
       </c>
       <c r="C4" t="n">
-        <v>754.6747333346186</v>
+        <v>628.0880017194808</v>
       </c>
       <c r="D4" t="n">
-        <v>604.558093922283</v>
+        <v>477.971362307145</v>
       </c>
       <c r="E4" t="n">
-        <v>456.64500033989</v>
+        <v>477.971362307145</v>
       </c>
       <c r="F4" t="n">
-        <v>309.7550528419796</v>
+        <v>331.0814148092347</v>
       </c>
       <c r="G4" t="n">
-        <v>309.7550528419796</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="H4" t="n">
         <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316233</v>
+        <v>65.42565911316231</v>
       </c>
       <c r="J4" t="n">
         <v>109.1495242182615</v>
@@ -4492,10 +4492,10 @@
         <v>310.838102740152</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039118</v>
+        <v>624.4564789039121</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220433</v>
+        <v>965.5122071220434</v>
       </c>
       <c r="N4" t="n">
         <v>1303.893008842035</v>
@@ -4513,25 +4513,25 @@
         <v>1815.856307632728</v>
       </c>
       <c r="S4" t="n">
-        <v>1815.856307632728</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="T4" t="n">
-        <v>1815.856307632728</v>
+        <v>1623.818632148415</v>
       </c>
       <c r="U4" t="n">
-        <v>1674.522498243366</v>
+        <v>1334.714664205792</v>
       </c>
       <c r="V4" t="n">
-        <v>1674.522498243366</v>
+        <v>1080.030175999905</v>
       </c>
       <c r="W4" t="n">
-        <v>1385.105328206406</v>
+        <v>1080.030175999905</v>
       </c>
       <c r="X4" t="n">
-        <v>1157.115777308388</v>
+        <v>1080.030175999905</v>
       </c>
       <c r="Y4" t="n">
-        <v>936.3231981648584</v>
+        <v>978.6726494776274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3135.094766832249</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3135.094766832249</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2782.326111562134</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,70 +4620,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1843.44430556267</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1843.44430556267</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1843.44430556267</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1554.341438688313</v>
+        <v>1406.118102925817</v>
       </c>
       <c r="V7" t="n">
-        <v>1554.341438688313</v>
+        <v>1151.43361471993</v>
       </c>
       <c r="W7" t="n">
-        <v>1554.341438688313</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="X7" t="n">
-        <v>1326.351887790296</v>
+        <v>862.0164446829692</v>
       </c>
       <c r="Y7" t="n">
-        <v>1105.559308646766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1899.13013587303</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066531</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796416</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796416</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796416</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8580214762837</v>
+        <v>627.5770176220484</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1343.057321554792</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.640151517831</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X10" t="n">
-        <v>825.6506006198139</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y10" t="n">
-        <v>604.8580214762837</v>
+        <v>749.2621142610717</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.777212765616</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2415.384692536052</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2415.384692536052</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2415.384692536052</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U13" t="n">
-        <v>2126.30946588025</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5264,22 +5264,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,10 +5288,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5355,19 +5355,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190824</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>931.4710609784062</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>762.5348780504993</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>612.4182386381635</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237795</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290467</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011398</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>549.614540988804</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>549.614540988804</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908937</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038343</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5701,22 +5701,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2150.626378269244</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1861.551151613442</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V19" t="n">
-        <v>1606.866663407555</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W19" t="n">
-        <v>1317.449493370594</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X19" t="n">
-        <v>1089.459942472577</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>868.6673633290467</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>810.0653816078137</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121639</v>
+        <v>641.1291986799069</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121639</v>
+        <v>491.0125592675713</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121639</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121639</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2272.481747211779</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1763.805055578918</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1509.120567373031</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>991.7138464380535</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>991.7138464380535</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,10 +5984,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>1016.580456911441</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835336</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711977</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888046</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908942</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1647.011051783228</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1419.021500885211</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6221,25 +6221,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876696</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597627</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.846482147427</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.846482147427</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.846482147427</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230698</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614395</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179093</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998289</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121644</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,19 +6637,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
         <v>1688.385853854706</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="32">
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6865,43 +6865,43 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6956,13 +6956,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942654</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,16 +7351,16 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7555,22 +7555,22 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,25 +7804,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>27.95355500662077</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.57646828340108</v>
+        <v>1.622913276780309</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>293.7590124934698</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.1129955007334</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>60.82134029177945</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22705,22 +22705,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
-        <v>146.2924569677283</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>118.2407020950398</v>
       </c>
     </row>
     <row r="5">
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.11263957635558</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>68.29586847696632</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>133.8601746357966</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>128.4813855737347</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>105.0583980710263</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>129.6605885985414</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194264</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.289762996848253</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194211</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>213.9188905722459</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.4693302300321</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194214</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26320,19 +26320,19 @@
         <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="F2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380011</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
         <v>161429.3199380012</v>
@@ -26341,19 +26341,19 @@
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="N2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="P2" t="n">
         <v>164208.3539728567</v>
-      </c>
-      <c r="N2" t="n">
-        <v>164208.3539728568</v>
-      </c>
-      <c r="O2" t="n">
-        <v>164208.3539728567</v>
-      </c>
-      <c r="P2" t="n">
-        <v>164208.3539728568</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074559</v>
+        <v>14479.05232074615</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>213977.889412553</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022697</v>
+        <v>3495.241841022814</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363177</v>
@@ -26418,22 +26418,22 @@
         <v>11046.00124731559</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26442,7 +26442,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
         <v>18547.94754987467</v>
@@ -26451,13 +26451,13 @@
         <v>18547.94754987469</v>
       </c>
       <c r="N4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987469</v>
       </c>
       <c r="O4" t="n">
-        <v>18547.9475498747</v>
+        <v>18547.94754987468</v>
       </c>
       <c r="P4" t="n">
-        <v>18547.94754987467</v>
+        <v>18547.94754987468</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1296025.461516177</v>
+        <v>-1296385.544531894</v>
       </c>
       <c r="C6" t="n">
-        <v>-47948.76196741482</v>
+        <v>-47948.76196741532</v>
       </c>
       <c r="D6" t="n">
-        <v>-33469.7096466691</v>
+        <v>-33469.70964666916</v>
       </c>
       <c r="E6" t="n">
-        <v>-275662.7599800425</v>
+        <v>-275697.4979054782</v>
       </c>
       <c r="F6" t="n">
-        <v>49749.70182731292</v>
+        <v>49714.96390187723</v>
       </c>
       <c r="G6" t="n">
-        <v>49749.70182731292</v>
+        <v>49714.96390187717</v>
       </c>
       <c r="H6" t="n">
-        <v>49749.70182731289</v>
+        <v>49714.9639018772</v>
       </c>
       <c r="I6" t="n">
-        <v>49749.70182731281</v>
+        <v>49714.96390187726</v>
       </c>
       <c r="J6" t="n">
-        <v>-164228.1875852402</v>
+        <v>-164262.9255106759</v>
       </c>
       <c r="K6" t="n">
-        <v>46254.45998629015</v>
+        <v>46219.72206085431</v>
       </c>
       <c r="L6" t="n">
-        <v>23068.57257543493</v>
+        <v>23068.57257543498</v>
       </c>
       <c r="M6" t="n">
-        <v>-42558.73736644514</v>
+        <v>-42558.73736644528</v>
       </c>
       <c r="N6" t="n">
-        <v>42496.29056906674</v>
+        <v>42496.29056906665</v>
       </c>
       <c r="O6" t="n">
-        <v>42496.29056906662</v>
+        <v>42496.29056906654</v>
       </c>
       <c r="P6" t="n">
-        <v>42496.29056906674</v>
+        <v>42496.29056906665</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1078.694448491202</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209548</v>
+        <v>11.08225210209594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145291</v>
+        <v>817.8207389145289</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776342</v>
+        <v>13.58071648776388</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>171.5769895179258</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>53.35974539096611</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>5.920412569483759</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>179.5651321021748</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.699073719327714</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>277.7117364082912</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.36373450930424</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>171.9929163331228</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511227</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>556.7959610899863</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34793,13 +34793,13 @@
         <v>409.4409041150108</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>337.0376277659695</v>
       </c>
       <c r="Q3" t="n">
         <v>156.1910865638649</v>
       </c>
       <c r="R3" t="n">
-        <v>27.95355500662077</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>197.8432633066783</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>425.454249006653</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38178,7 +38178,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
